--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
@@ -88,10 +91,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H2">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.83655304624607</v>
+        <v>6.367777666666666</v>
       </c>
       <c r="N2">
-        <v>5.83655304624607</v>
+        <v>19.103333</v>
       </c>
       <c r="O2">
-        <v>0.09919998384251798</v>
+        <v>0.1035015452901983</v>
       </c>
       <c r="P2">
-        <v>0.09919998384251798</v>
+        <v>0.1035015452901983</v>
       </c>
       <c r="Q2">
-        <v>43.55606385313475</v>
+        <v>47.85254377057833</v>
       </c>
       <c r="R2">
-        <v>43.55606385313475</v>
+        <v>430.672893935205</v>
       </c>
       <c r="S2">
-        <v>0.09919998384251798</v>
+        <v>0.1026887944886924</v>
       </c>
       <c r="T2">
-        <v>0.09919998384251798</v>
+        <v>0.1026887944886925</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H3">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.6561324812824</v>
+        <v>35.95218066666666</v>
       </c>
       <c r="N3">
-        <v>35.6561324812824</v>
+        <v>107.856542</v>
       </c>
       <c r="O3">
-        <v>0.6060234076523752</v>
+        <v>0.5843649779154859</v>
       </c>
       <c r="P3">
-        <v>0.6060234076523752</v>
+        <v>0.584364977915486</v>
       </c>
       <c r="Q3">
-        <v>266.0886949548837</v>
+        <v>270.1732675129633</v>
       </c>
       <c r="R3">
-        <v>266.0886949548837</v>
+        <v>2431.559407616669</v>
       </c>
       <c r="S3">
-        <v>0.6060234076523752</v>
+        <v>0.5797762241646013</v>
       </c>
       <c r="T3">
-        <v>0.6060234076523752</v>
+        <v>0.5797762241646014</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.46263479626026</v>
+        <v>7.514794999999999</v>
       </c>
       <c r="H4">
-        <v>7.46263479626026</v>
+        <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.992147452492356</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.548936727580472</v>
+        <v>0.107036</v>
       </c>
       <c r="N4">
-        <v>0.548936727580472</v>
+        <v>0.321108</v>
       </c>
       <c r="O4">
-        <v>0.009329909978556835</v>
+        <v>0.001739757884398759</v>
       </c>
       <c r="P4">
-        <v>0.009329909978556835</v>
+        <v>0.001739757884398759</v>
       </c>
       <c r="Q4">
-        <v>4.096514324187269</v>
+        <v>0.80435359762</v>
       </c>
       <c r="R4">
-        <v>4.096514324187269</v>
+        <v>7.23918237858</v>
       </c>
       <c r="S4">
-        <v>0.009329909978556835</v>
+        <v>0.00172609635295972</v>
       </c>
       <c r="T4">
-        <v>0.009329909978556835</v>
+        <v>0.00172609635295972</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +714,557 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H5">
+        <v>22.544385</v>
+      </c>
+      <c r="I5">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J5">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.5516093333333333</v>
+      </c>
+      <c r="N5">
+        <v>1.654828</v>
+      </c>
+      <c r="O5">
+        <v>0.00896583099867904</v>
+      </c>
+      <c r="P5">
+        <v>0.008965830998679042</v>
+      </c>
+      <c r="Q5">
+        <v>4.145231060086666</v>
+      </c>
+      <c r="R5">
+        <v>37.30707954077999</v>
+      </c>
+      <c r="S5">
+        <v>0.008895426384816406</v>
+      </c>
+      <c r="T5">
+        <v>0.008895426384816408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H6">
+        <v>22.544385</v>
+      </c>
+      <c r="I6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J6">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.03953766666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.118613</v>
+      </c>
+      <c r="O6">
+        <v>0.0006426432911736549</v>
+      </c>
+      <c r="P6">
+        <v>0.000642643291173655</v>
+      </c>
+      <c r="Q6">
+        <v>0.2971174597783333</v>
+      </c>
+      <c r="R6">
+        <v>2.674057138005</v>
+      </c>
+      <c r="S6">
+        <v>0.000637596904199245</v>
+      </c>
+      <c r="T6">
+        <v>0.0006375969041992451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.514794999999999</v>
+      </c>
+      <c r="H7">
+        <v>22.544385</v>
+      </c>
+      <c r="I7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="J7">
+        <v>0.992147452492356</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>18.505362</v>
+      </c>
+      <c r="N7">
+        <v>55.516086</v>
+      </c>
+      <c r="O7">
+        <v>0.3007852446200642</v>
+      </c>
+      <c r="P7">
+        <v>0.3007852446200642</v>
+      </c>
+      <c r="Q7">
+        <v>139.06400183079</v>
+      </c>
+      <c r="R7">
+        <v>1251.57601647711</v>
+      </c>
+      <c r="S7">
+        <v>0.2984233141970868</v>
+      </c>
+      <c r="T7">
+        <v>0.2984233141970868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.178432</v>
+      </c>
+      <c r="I8">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J8">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.367777666666666</v>
+      </c>
+      <c r="N8">
+        <v>19.103333</v>
+      </c>
+      <c r="O8">
+        <v>0.1035015452901983</v>
+      </c>
+      <c r="P8">
+        <v>0.1035015452901983</v>
+      </c>
+      <c r="Q8">
+        <v>0.3787384348728888</v>
+      </c>
+      <c r="R8">
+        <v>3.408645913856</v>
+      </c>
+      <c r="S8">
+        <v>0.000812750801505846</v>
+      </c>
+      <c r="T8">
+        <v>0.0008127508015058462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.178432</v>
+      </c>
+      <c r="I9">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J9">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>35.95218066666666</v>
+      </c>
+      <c r="N9">
+        <v>107.856542</v>
+      </c>
+      <c r="O9">
+        <v>0.5843649779154859</v>
+      </c>
+      <c r="P9">
+        <v>0.584364977915486</v>
+      </c>
+      <c r="Q9">
+        <v>2.138339833571556</v>
+      </c>
+      <c r="R9">
+        <v>19.245058502144</v>
+      </c>
+      <c r="S9">
+        <v>0.004588753750884671</v>
+      </c>
+      <c r="T9">
+        <v>0.004588753750884673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="H5">
-        <v>7.46263479626026</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>16.794607552264</v>
-      </c>
-      <c r="N5">
-        <v>16.794607552264</v>
-      </c>
-      <c r="O5">
-        <v>0.28544669852655</v>
-      </c>
-      <c r="P5">
-        <v>0.28544669852655</v>
-      </c>
-      <c r="Q5">
-        <v>125.3320227090607</v>
-      </c>
-      <c r="R5">
-        <v>125.3320227090607</v>
-      </c>
-      <c r="S5">
-        <v>0.28544669852655</v>
-      </c>
-      <c r="T5">
-        <v>0.28544669852655</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.178432</v>
+      </c>
+      <c r="I10">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J10">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.107036</v>
+      </c>
+      <c r="N10">
+        <v>0.321108</v>
+      </c>
+      <c r="O10">
+        <v>0.001739757884398759</v>
+      </c>
+      <c r="P10">
+        <v>0.001739757884398759</v>
+      </c>
+      <c r="Q10">
+        <v>0.006366215850666667</v>
+      </c>
+      <c r="R10">
+        <v>0.057295942656</v>
+      </c>
+      <c r="S10">
+        <v>1.366153143903942E-05</v>
+      </c>
+      <c r="T10">
+        <v>1.366153143903942E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.178432</v>
+      </c>
+      <c r="I11">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J11">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.5516093333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.654828</v>
+      </c>
+      <c r="O11">
+        <v>0.00896583099867904</v>
+      </c>
+      <c r="P11">
+        <v>0.008965830998679042</v>
+      </c>
+      <c r="Q11">
+        <v>0.03280825218844444</v>
+      </c>
+      <c r="R11">
+        <v>0.295274269696</v>
+      </c>
+      <c r="S11">
+        <v>7.040461386263412E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.040461386263416E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.178432</v>
+      </c>
+      <c r="I12">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J12">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.03953766666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.118613</v>
+      </c>
+      <c r="O12">
+        <v>0.0006426432911736549</v>
+      </c>
+      <c r="P12">
+        <v>0.000642643291173655</v>
+      </c>
+      <c r="Q12">
+        <v>0.002351594979555555</v>
+      </c>
+      <c r="R12">
+        <v>0.021164354816</v>
+      </c>
+      <c r="S12">
+        <v>5.046386974409801E-06</v>
+      </c>
+      <c r="T12">
+        <v>5.046386974409802E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.05947733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.178432</v>
+      </c>
+      <c r="I13">
+        <v>0.007852547507643968</v>
+      </c>
+      <c r="J13">
+        <v>0.00785254750764397</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.505362</v>
+      </c>
+      <c r="N13">
+        <v>55.516086</v>
+      </c>
+      <c r="O13">
+        <v>0.3007852446200642</v>
+      </c>
+      <c r="P13">
+        <v>0.3007852446200642</v>
+      </c>
+      <c r="Q13">
+        <v>1.100649584128</v>
+      </c>
+      <c r="R13">
+        <v>9.905846257152001</v>
+      </c>
+      <c r="S13">
+        <v>0.002361930422977366</v>
+      </c>
+      <c r="T13">
+        <v>0.002361930422977367</v>
       </c>
     </row>
   </sheetData>
